--- a/homework3/School Office.xlsx
+++ b/homework3/School Office.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>Schoolchild</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>время окончания урока</t>
+  </si>
+  <si>
+    <t>tinyint</t>
   </si>
 </sst>
 </file>
@@ -251,6 +254,33 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -260,15 +290,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -278,15 +299,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -294,15 +306,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -602,7 +605,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D17" sqref="D17:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -615,213 +618,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="F1" s="7" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="F1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="9"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="2">
         <v>10</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="6">
+        <v>10</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>100</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="6">
         <v>3</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5">
-        <v>100</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="12">
-        <v>2</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="12">
+      <c r="G5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="6">
         <v>3</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="12">
-        <v>1</v>
-      </c>
-      <c r="I6" s="11" t="s">
+      <c r="G6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="6">
+        <v>3</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:9" ht="21" thickTop="1" thickBot="1">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="18">
-        <v>5</v>
-      </c>
-      <c r="D10" s="17" t="s">
+      <c r="C10" s="9">
+        <v>10</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="18">
-        <v>3</v>
-      </c>
-      <c r="D11" s="17" t="s">
+      <c r="C11" s="9">
+        <v>10</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="9">
         <v>10</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="9">
         <v>10</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="8" t="s">
         <v>29</v>
       </c>
     </row>
